--- a/Test cases for Redmine.org.xlsx
+++ b/Test cases for Redmine.org.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\фермер\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\фермер\Desktop\Redmine Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFA4F83B-B77C-481A-A719-72B4B738E7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722146D6-5258-4A60-9927-5AB1AE059408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F33921D4-0D34-4707-A131-2AE794F0F9F4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>Project Name</t>
   </si>
@@ -200,6 +200,16 @@
   </si>
   <si>
     <t>Error message: "Password is to short" is displayed</t>
+  </si>
+  <si>
+    <t>Register new user using valid randomly generated credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fill the fields with valid random data</t>
+  </si>
+  <si>
+    <t>Success message:"Account was successfully
+created." is displayed</t>
   </si>
 </sst>
 </file>
@@ -478,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -519,89 +529,95 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,21 +1020,21 @@
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1099,11 +1115,11 @@
       <c r="A9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
@@ -1169,11 +1185,11 @@
       <c r="A15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
@@ -1248,203 +1264,275 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CB42AA-F373-453A-BDF5-E04ACCD6928B}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="34">
+        <v>2</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
+        <v>3</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="34">
+        <v>4</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <v>1</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="34">
+        <v>2</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="34">
+        <v>3</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="34">
+        <v>4</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
+        <v>5</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B16" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C16" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D16" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="51">
+    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
         <v>1</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B17" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C17" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="52"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="52">
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="34">
         <v>2</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B18" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C18" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="52"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="52">
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
         <v>3</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B19" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C19" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="52"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="52">
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="34">
         <v>4</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B20" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C20" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="52"/>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="52">
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="34">
         <v>5</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B21" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C21" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="52"/>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="51">
-        <v>1</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="52"/>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="52">
-        <v>2</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="52"/>
-    </row>
-    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="52">
-        <v>3</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="52"/>
-    </row>
-    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="52">
-        <v>4</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="52"/>
-    </row>
-    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="52">
-        <v>5</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="52"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D21" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1471,21 +1559,21 @@
       <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
@@ -1564,71 +1652,71 @@
       <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
